--- a/CRM/개발문서/170602_프로젝트수정요구사항_ver1.0.xlsx
+++ b/CRM/개발문서/170602_프로젝트수정요구사항_ver1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12375" windowHeight="10095"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12375" windowHeight="9990"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 정의 ver_1.0" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>요구사항</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,91 +54,139 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>회의내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예정작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선순위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면이 3단계 이상 들어가지 않도록 구성하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 메뉴에서 이름 수정(용어 정리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각자 화면에서 수정하면 안되는 값 readonly 처리(필수입력사항 구분하기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업담당자 -&gt; 당사 담당자로 이름 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키맨 페이지 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객사 구분 컬럼을 기본값(가망) 입력 후 수정할 수있도록 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객사 구분하는 상태 페이지 구현(차후 관리 할 수 있는 페이지 + 로그)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 화면에서 완전삭제버튼 제어하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업자번호와 법인번호는 수정할 수 없도록 readonly 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주간활동보고서, 영업일지, 고객사 매출 페이지 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품카테고리 메뉴 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약, 프로젝트를 관리할 수 있는 서브메뉴 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견적부분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제된 데이터 &gt; 복원 기능 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>고객사 부분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연락처 부분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴를 눌렀을때 기본 페이지 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회의내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예정작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우선순위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면이 3단계 이상 들어가지 않도록 구성하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 메뉴에서 이름 수정(용어 정리)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴를 눌렀을때 기본 페이지 보여주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>문서 작성하기(ERD, 화면설계서, 프로세서 다이어그램)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>메뉴 클릭 시 사이드바에 등록 페이지 연결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>각자 화면에서 수정하면 안되는 값 readonly 처리(필수입력사항 구분하기)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영업담당자 -&gt; 당사 담당자로 이름 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>키맨 페이지 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객사 구분 컬럼을 기본값(가망) 입력 후 수정할 수있도록 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객사 구분하는 상태 페이지 구현(차후 관리 할 수 있는 페이지 + 로그)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 화면에서 완전삭제버튼 제어하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사업자번호와 법인번호는 수정할 수 없도록 readonly 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주간활동보고서, 영업일지, 고객사 매출 페이지 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연락처</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품카테고리 메뉴 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계약, 프로젝트를 관리할 수 있는 서브메뉴 구현</t>
+    <t>공통사항_
+1. 메뉴 추가 구성으로 대체
+2. 메뉴 구성
+홈 : 메인 메뉴에서 제거
+고객사관리 &gt; 고객사 조회 / 고객사 등록 / 키맨 등록 / 담당사원 등록
+연락처관리 &gt; 연락처 조회/등록  /  키맨 조회
+영업기회관리 &gt; 영업기회 조회 / 영업기회 등록
+영업활동관리 &gt; 일정 조회 / 영업활동 조회 / 영업활동 등록
+                   / 주간활동보고서 / 영업일지
+견적관리 &gt; 견적 조회 / 견적등록
+계약관리 &gt; 계약 조회 / 계약 등록
+프로젝트 관리 &gt; 프로젝트 조회 / 프로젝트 등록 
+영업정보관리 &gt; 공지사항 / 게시판 / Q&amp;A / 게시판 관리
+                    / 표준제안서 관리
+기준정보관리 &gt; 조직관리 / 사용자관리 / 메뉴관리 / 권한관리 /  코드관리
+상품서비스관리 &gt; 카테고리 / 상품서비스 조회 / 상품서비스 등록 
+3. 메인메뉴 클릭 시 기본 리스트 화면으로 이동
+4. 고객사 &gt; 고객사명, 사업자번호, 법인번호
+    연락처 &gt; 이름, 회사명
+    영업기회 &gt; 영업기회명, 고객사명, 고객사버튼 , 상태, 영업단계
+    영업활동 &gt; 영업활동명 
+    견적 &gt; 견적명,  고객사, 영업기회명
+    조직관리 &gt; 조직ID삭제, 상위조직ID-&gt; 이름으로 수정
+    사용자관리 &gt; 사용자ID, 사용자명
+    코드관리 &gt; 코드그룹ID, 코드ID  
+* 확인 사항
+영업일지 테이블 생성, 이력을 볼 수 있는 로그 테이블 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -146,44 +194,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-메뉴 구성
-홈
-고객사관리 &gt; 고객사조회 / 고객사 등록 / 키맨등록 / 당사 담당자 등록
-연락처관리 &gt; 연락처조회 / 키맨조회
-영업기회관리 &gt; 영업기회조회 / 영업기회 등록
-영업활동관리 &gt; 일정조회 / 영업활동조회 / 영업활동등록
-견적관리 &gt; 견적조회 / 견적등록
-영업정보관리 &gt; 공지사항 / 게시판 / QnA / 게시판 관리
-기준정보관리 &gt; 조직관리 / 사용자관리 / 메뉴관리 / 권한관리 / 
-                      코드관리
-상품관리 &gt; 상품서비스 카테고리 / 상품서비스 조회 / 상품서비스 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>견적부분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삭제된 데이터 &gt; 복원 기능 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>고객사 부분</t>
+    <t xml:space="preserve">네비 부분 정렬 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -225,7 +236,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -484,26 +495,6 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -552,13 +543,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -574,12 +628,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -622,6 +670,96 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -646,106 +784,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1057,9 +1117,9 @@
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1067,7 +1127,7 @@
     <col min="1" max="1" width="12.375" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="60" customWidth="1"/>
-    <col min="4" max="4" width="58.875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="62.625" style="16" customWidth="1"/>
     <col min="5" max="5" width="49.125" customWidth="1"/>
     <col min="6" max="6" width="10.25" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
@@ -1077,324 +1137,324 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9"/>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="7"/>
+      <c r="B1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="52"/>
+      <c r="D1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="19">
+        <v>1</v>
+      </c>
+      <c r="C2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="29">
-        <v>1</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>32</v>
+      <c r="D2" s="49" t="s">
+        <v>36</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="36"/>
-    </row>
-    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="30" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="26"/>
+    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="54"/>
+      <c r="B3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="C3" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="50"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
       <c r="G3" s="2"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="37"/>
-    </row>
-    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="30" t="s">
+      <c r="I3" s="6"/>
+      <c r="J3" s="27"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="54"/>
+      <c r="B4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="C4" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="50"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="2"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="37"/>
-    </row>
-    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="30" t="s">
+      <c r="I4" s="6"/>
+      <c r="J4" s="27"/>
+    </row>
+    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="54"/>
+      <c r="B5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="22"/>
+      <c r="C5" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="50"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="37"/>
-    </row>
-    <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="22"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="27"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="55"/>
+      <c r="B6" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="50"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="37"/>
-    </row>
-    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="27"/>
-      <c r="B7" s="54" t="s">
+      <c r="I6" s="6"/>
+      <c r="J6" s="27"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="50"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="29"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="54"/>
+      <c r="B8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="50"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="30"/>
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="54"/>
+      <c r="B9" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="D9" s="50"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="29"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="54"/>
+      <c r="B10" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="50"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="37"/>
+    </row>
+    <row r="11" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="25">
+        <v>1</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="50"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="40"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="24">
+        <v>1</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="50"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="40"/>
+    </row>
+    <row r="13" spans="1:10" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="22">
+        <v>1</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="50"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="34"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="54"/>
+      <c r="B14" s="23">
+        <v>2</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="50"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="30"/>
+    </row>
+    <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="54"/>
+      <c r="B15" s="23">
+        <v>3</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="50"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="30"/>
+    </row>
+    <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="54"/>
+      <c r="B16" s="22">
+        <v>4</v>
+      </c>
+      <c r="C16" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="48"/>
-    </row>
-    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="39"/>
-    </row>
-    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="40"/>
-    </row>
-    <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="30" t="s">
+      <c r="D16" s="50"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="34"/>
+    </row>
+    <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="54"/>
+      <c r="B17" s="23">
+        <v>5</v>
+      </c>
+      <c r="C17" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="39"/>
-    </row>
-    <row r="11" spans="1:10" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="26"/>
-      <c r="B11" s="30" t="s">
+      <c r="D17" s="50"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="63"/>
+    </row>
+    <row r="18" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="55"/>
+      <c r="B18" s="21">
+        <v>6</v>
+      </c>
+      <c r="C18" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="49"/>
-    </row>
-    <row r="12" spans="1:10" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="35">
-        <v>1</v>
-      </c>
-      <c r="C12" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="52"/>
-    </row>
-    <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="34">
-        <v>1</v>
-      </c>
-      <c r="C13" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="52"/>
-    </row>
-    <row r="14" spans="1:10" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="32">
-        <v>1</v>
-      </c>
-      <c r="C14" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="44"/>
-    </row>
-    <row r="15" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
-      <c r="B15" s="33">
-        <v>2</v>
-      </c>
-      <c r="C15" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="40"/>
-    </row>
-    <row r="16" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
-      <c r="B16" s="33">
-        <v>3</v>
-      </c>
-      <c r="C16" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="40"/>
-    </row>
-    <row r="17" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="32">
-        <v>4</v>
-      </c>
-      <c r="C17" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="44"/>
-    </row>
-    <row r="18" spans="1:10" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="27"/>
-      <c r="B18" s="31">
-        <v>5</v>
-      </c>
-      <c r="C18" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="45"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="D2:D18"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A13:A18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1403,7 +1463,7 @@
     <oddHeader>&amp;R요구사항 정의 ver_0.3</oddHeader>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B3:B11" numberStoredAsText="1"/>
+    <ignoredError sqref="B3:B6 B7:B10" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
